--- a/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Documents\edited_town_close_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA78C6A-9F8C-460B-87A4-9CB76DEB1D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BC8891-C01E-45A6-A29A-8D2865FE04A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31035" yWindow="0" windowWidth="24555" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,40 +46,40 @@
     <t>WHO</t>
   </si>
   <si>
-    <t>2023 LMV</t>
-  </si>
-  <si>
-    <t>2023 BMV</t>
-  </si>
-  <si>
-    <t>2023 Total MV</t>
-  </si>
-  <si>
-    <t>2024 BMV</t>
-  </si>
-  <si>
-    <t>2024 Total MV</t>
-  </si>
-  <si>
-    <t>2023 LAV</t>
-  </si>
-  <si>
-    <t>2024 BAV</t>
-  </si>
-  <si>
-    <t>2024 Total AV</t>
-  </si>
-  <si>
-    <t>2024 LAV</t>
-  </si>
-  <si>
-    <t>2023 BAV</t>
-  </si>
-  <si>
-    <t>2023 Total AV</t>
-  </si>
-  <si>
-    <t>2024 LMV</t>
+    <t>Prior Year LMV</t>
+  </si>
+  <si>
+    <t>Prior Year BMV</t>
+  </si>
+  <si>
+    <t>Prior Year Total MV</t>
+  </si>
+  <si>
+    <t>Prior Year LAV</t>
+  </si>
+  <si>
+    <t>Prior Year BAV</t>
+  </si>
+  <si>
+    <t>Prior Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year LMV</t>
+  </si>
+  <si>
+    <t>Curr. Year BMV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total MV</t>
+  </si>
+  <si>
+    <t>Curr. Year LAV</t>
+  </si>
+  <si>
+    <t>Curr. Year BAV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total AV</t>
   </si>
 </sst>
 </file>
@@ -137,10 +137,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -447,30 +447,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,31 +510,31 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Documents\edited_town_close_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BC8891-C01E-45A6-A29A-8D2865FE04A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AA15AC-36C0-41E5-9CD3-880031334C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33750" yWindow="-2400" windowWidth="27705" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,24 +447,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>

--- a/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AA15AC-36C0-41E5-9CD3-880031334C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6A82A-D9D7-4E89-B44E-A7DF9B762306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33750" yWindow="-2400" windowWidth="27705" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,9 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6A82A-D9D7-4E89-B44E-A7DF9B762306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB5263-B0CA-49A4-AC4F-7DDDEE7A31D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,17 +459,17 @@
     <col min="6" max="6" width="24.21875" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
     <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_class_does_not_equal_luc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA78C6A-9F8C-460B-87A4-9CB76DEB1D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB5263-B0CA-49A4-AC4F-7DDDEE7A31D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31035" yWindow="0" windowWidth="24555" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,40 +46,40 @@
     <t>WHO</t>
   </si>
   <si>
-    <t>2023 LMV</t>
-  </si>
-  <si>
-    <t>2023 BMV</t>
-  </si>
-  <si>
-    <t>2023 Total MV</t>
-  </si>
-  <si>
-    <t>2024 BMV</t>
-  </si>
-  <si>
-    <t>2024 Total MV</t>
-  </si>
-  <si>
-    <t>2023 LAV</t>
-  </si>
-  <si>
-    <t>2024 BAV</t>
-  </si>
-  <si>
-    <t>2024 Total AV</t>
-  </si>
-  <si>
-    <t>2024 LAV</t>
-  </si>
-  <si>
-    <t>2023 BAV</t>
-  </si>
-  <si>
-    <t>2023 Total AV</t>
-  </si>
-  <si>
-    <t>2024 LMV</t>
+    <t>Prior Year LMV</t>
+  </si>
+  <si>
+    <t>Prior Year BMV</t>
+  </si>
+  <si>
+    <t>Prior Year Total MV</t>
+  </si>
+  <si>
+    <t>Prior Year LAV</t>
+  </si>
+  <si>
+    <t>Prior Year BAV</t>
+  </si>
+  <si>
+    <t>Prior Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year LMV</t>
+  </si>
+  <si>
+    <t>Curr. Year BMV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total MV</t>
+  </si>
+  <si>
+    <t>Curr. Year LAV</t>
+  </si>
+  <si>
+    <t>Curr. Year BAV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total AV</t>
   </si>
 </sst>
 </file>
@@ -137,10 +137,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -449,28 +449,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,31 +508,31 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
